--- a/data/trans_orig/P1497-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P1497-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5830E65E-D60D-4A6D-8622-D3B3D6987F43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{807110BB-B86F-40E4-AC3C-F1F69C470B05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{C61A3E2B-15C9-4C9E-B5AB-719A975ED579}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{76B12A1A-0AE3-4770-8473-4A725716EA32}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="193">
   <si>
     <t>Población con diagnóstico de otra enfermedad 1 en 2012 (Tasa respuesta: 5,07%)</t>
   </si>
@@ -304,124 +304,127 @@
     <t>17,09%</t>
   </si>
   <si>
-    <t>10,38%</t>
-  </si>
-  <si>
-    <t>25,74%</t>
+    <t>10,41%</t>
+  </si>
+  <si>
+    <t>25,05%</t>
   </si>
   <si>
     <t>14,13%</t>
   </si>
   <si>
-    <t>9,87%</t>
-  </si>
-  <si>
-    <t>19,58%</t>
+    <t>9,8%</t>
+  </si>
+  <si>
+    <t>19,67%</t>
   </si>
   <si>
     <t>15,43%</t>
   </si>
   <si>
-    <t>11,84%</t>
-  </si>
-  <si>
-    <t>20,29%</t>
+    <t>11,34%</t>
+  </si>
+  <si>
+    <t>20,77%</t>
   </si>
   <si>
     <t>82,91%</t>
   </si>
   <si>
-    <t>74,26%</t>
-  </si>
-  <si>
-    <t>89,62%</t>
+    <t>74,95%</t>
+  </si>
+  <si>
+    <t>89,59%</t>
   </si>
   <si>
     <t>85,87%</t>
   </si>
   <si>
-    <t>80,42%</t>
-  </si>
-  <si>
-    <t>90,13%</t>
+    <t>80,33%</t>
+  </si>
+  <si>
+    <t>90,2%</t>
   </si>
   <si>
     <t>84,57%</t>
   </si>
   <si>
-    <t>79,71%</t>
-  </si>
-  <si>
-    <t>88,16%</t>
+    <t>79,23%</t>
+  </si>
+  <si>
+    <t>88,66%</t>
   </si>
   <si>
     <t>10,85%</t>
   </si>
   <si>
-    <t>8,31%</t>
-  </si>
-  <si>
-    <t>13,6%</t>
+    <t>8,62%</t>
+  </si>
+  <si>
+    <t>14,05%</t>
   </si>
   <si>
     <t>9,08%</t>
   </si>
   <si>
-    <t>7,35%</t>
-  </si>
-  <si>
-    <t>11,17%</t>
+    <t>7,41%</t>
+  </si>
+  <si>
+    <t>10,99%</t>
   </si>
   <si>
     <t>9,93%</t>
   </si>
   <si>
-    <t>8,54%</t>
-  </si>
-  <si>
-    <t>11,63%</t>
+    <t>8,61%</t>
+  </si>
+  <si>
+    <t>11,83%</t>
   </si>
   <si>
     <t>89,15%</t>
   </si>
   <si>
-    <t>86,4%</t>
-  </si>
-  <si>
-    <t>91,69%</t>
+    <t>85,95%</t>
+  </si>
+  <si>
+    <t>91,38%</t>
   </si>
   <si>
     <t>90,92%</t>
   </si>
   <si>
-    <t>88,83%</t>
-  </si>
-  <si>
-    <t>92,65%</t>
+    <t>89,01%</t>
+  </si>
+  <si>
+    <t>92,59%</t>
   </si>
   <si>
     <t>90,07%</t>
   </si>
   <si>
-    <t>88,37%</t>
-  </si>
-  <si>
-    <t>91,46%</t>
+    <t>88,17%</t>
+  </si>
+  <si>
+    <t>91,39%</t>
   </si>
   <si>
     <t>7,76%</t>
   </si>
   <si>
-    <t>5,97%</t>
+    <t>5,79%</t>
+  </si>
+  <si>
+    <t>9,59%</t>
   </si>
   <si>
     <t>10,83%</t>
   </si>
   <si>
-    <t>9,34%</t>
-  </si>
-  <si>
-    <t>12,66%</t>
+    <t>9,38%</t>
+  </si>
+  <si>
+    <t>12,59%</t>
   </si>
   <si>
     <t>9,31%</t>
@@ -430,28 +433,31 @@
     <t>8,09%</t>
   </si>
   <si>
-    <t>10,69%</t>
+    <t>10,58%</t>
   </si>
   <si>
     <t>92,24%</t>
   </si>
   <si>
-    <t>94,03%</t>
+    <t>90,41%</t>
+  </si>
+  <si>
+    <t>94,21%</t>
   </si>
   <si>
     <t>89,17%</t>
   </si>
   <si>
-    <t>87,34%</t>
-  </si>
-  <si>
-    <t>90,66%</t>
+    <t>87,41%</t>
+  </si>
+  <si>
+    <t>90,62%</t>
   </si>
   <si>
     <t>90,69%</t>
   </si>
   <si>
-    <t>89,31%</t>
+    <t>89,42%</t>
   </si>
   <si>
     <t>91,91%</t>
@@ -460,157 +466,157 @@
     <t>6,36%</t>
   </si>
   <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>8,3%</t>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>8,35%</t>
   </si>
   <si>
     <t>7,85%</t>
   </si>
   <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>9,82%</t>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>9,98%</t>
   </si>
   <si>
     <t>7,17%</t>
   </si>
   <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>8,74%</t>
+    <t>5,52%</t>
   </si>
   <si>
     <t>93,64%</t>
   </si>
   <si>
-    <t>91,7%</t>
-  </si>
-  <si>
-    <t>95,37%</t>
+    <t>91,65%</t>
+  </si>
+  <si>
+    <t>95,33%</t>
   </si>
   <si>
     <t>92,15%</t>
   </si>
   <si>
-    <t>90,18%</t>
-  </si>
-  <si>
-    <t>94,77%</t>
+    <t>90,02%</t>
+  </si>
+  <si>
+    <t>94,82%</t>
   </si>
   <si>
     <t>92,83%</t>
   </si>
   <si>
-    <t>91,26%</t>
-  </si>
-  <si>
-    <t>94,4%</t>
+    <t>94,48%</t>
   </si>
   <si>
     <t>9,21%</t>
   </si>
   <si>
-    <t>7,56%</t>
-  </si>
-  <si>
-    <t>11,02%</t>
+    <t>7,57%</t>
+  </si>
+  <si>
+    <t>11,01%</t>
   </si>
   <si>
     <t>10,9%</t>
   </si>
   <si>
-    <t>12,78%</t>
+    <t>9,27%</t>
+  </si>
+  <si>
+    <t>12,7%</t>
   </si>
   <si>
     <t>10,13%</t>
   </si>
   <si>
-    <t>8,82%</t>
-  </si>
-  <si>
-    <t>11,35%</t>
+    <t>8,86%</t>
+  </si>
+  <si>
+    <t>11,31%</t>
   </si>
   <si>
     <t>90,79%</t>
   </si>
   <si>
-    <t>88,98%</t>
-  </si>
-  <si>
-    <t>92,44%</t>
+    <t>88,99%</t>
+  </si>
+  <si>
+    <t>92,43%</t>
   </si>
   <si>
     <t>89,1%</t>
   </si>
   <si>
-    <t>87,22%</t>
+    <t>87,3%</t>
+  </si>
+  <si>
+    <t>90,73%</t>
   </si>
   <si>
     <t>89,87%</t>
   </si>
   <si>
-    <t>88,65%</t>
-  </si>
-  <si>
-    <t>91,18%</t>
+    <t>88,69%</t>
+  </si>
+  <si>
+    <t>91,14%</t>
   </si>
   <si>
     <t>8,66%</t>
   </si>
   <si>
-    <t>7,72%</t>
-  </si>
-  <si>
-    <t>9,68%</t>
+    <t>7,69%</t>
+  </si>
+  <si>
+    <t>9,72%</t>
   </si>
   <si>
     <t>10,01%</t>
   </si>
   <si>
-    <t>8,92%</t>
-  </si>
-  <si>
-    <t>10,98%</t>
+    <t>8,93%</t>
+  </si>
+  <si>
+    <t>10,92%</t>
   </si>
   <si>
     <t>9,37%</t>
   </si>
   <si>
-    <t>8,68%</t>
-  </si>
-  <si>
-    <t>10,07%</t>
+    <t>8,69%</t>
+  </si>
+  <si>
+    <t>10,03%</t>
   </si>
   <si>
     <t>91,34%</t>
   </si>
   <si>
-    <t>90,32%</t>
-  </si>
-  <si>
-    <t>92,28%</t>
+    <t>90,28%</t>
+  </si>
+  <si>
+    <t>92,31%</t>
   </si>
   <si>
     <t>89,99%</t>
   </si>
   <si>
-    <t>89,02%</t>
-  </si>
-  <si>
-    <t>91,08%</t>
+    <t>89,08%</t>
+  </si>
+  <si>
+    <t>91,07%</t>
   </si>
   <si>
     <t>90,63%</t>
   </si>
   <si>
-    <t>89,93%</t>
-  </si>
-  <si>
-    <t>91,32%</t>
+    <t>89,97%</t>
+  </si>
+  <si>
+    <t>91,31%</t>
   </si>
 </sst>
 </file>
@@ -1022,7 +1028,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32DFF7F5-D85B-4648-9397-1BCACD5699EC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{514868F6-375B-4299-8F6E-C3CBA48D7F5C}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2085,7 +2091,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7215B034-81C4-4952-9C65-9A4521F44FAD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23A59268-34E1-410D-8688-7DDF366462E2}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3148,7 +3154,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7656185-BA03-48B2-85D9-130FC9EA9E25}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD84CBF2-83BF-4C0E-BA02-37D425ACB3C6}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3588,7 +3594,7 @@
         <v>124</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>91</v>
+        <v>125</v>
       </c>
       <c r="H10" s="7">
         <v>182</v>
@@ -3597,13 +3603,13 @@
         <v>114651</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M10" s="7">
         <v>267</v>
@@ -3612,13 +3618,13 @@
         <v>195285</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3633,13 +3639,13 @@
         <v>958614</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>101</v>
+        <v>133</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="H11" s="7">
         <v>1332</v>
@@ -3648,13 +3654,13 @@
         <v>943946</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="M11" s="7">
         <v>2211</v>
@@ -3663,13 +3669,13 @@
         <v>1902560</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3737,13 +3743,13 @@
         <v>46222</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="H13" s="7">
         <v>103</v>
@@ -3752,13 +3758,13 @@
         <v>68602</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="M13" s="7">
         <v>150</v>
@@ -3767,13 +3773,13 @@
         <v>114824</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>147</v>
+        <v>112</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3788,13 +3794,13 @@
         <v>680702</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="H14" s="7">
         <v>941</v>
@@ -3803,13 +3809,13 @@
         <v>805291</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="M14" s="7">
         <v>1568</v>
@@ -3818,10 +3824,10 @@
         <v>1485993</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>155</v>
+        <v>122</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>156</v>
@@ -3910,10 +3916,10 @@
         <v>160</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>128</v>
+        <v>161</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="M16" s="7">
         <v>282</v>
@@ -3922,13 +3928,13 @@
         <v>213916</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3943,13 +3949,13 @@
         <v>876476</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="H17" s="7">
         <v>1383</v>
@@ -3958,13 +3964,13 @@
         <v>1021956</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>136</v>
+        <v>171</v>
       </c>
       <c r="M17" s="7">
         <v>2284</v>
@@ -3973,13 +3979,13 @@
         <v>1898431</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4047,13 +4053,13 @@
         <v>292793</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="H19" s="7">
         <v>603</v>
@@ -4062,13 +4068,13 @@
         <v>380514</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="M19" s="7">
         <v>932</v>
@@ -4077,13 +4083,13 @@
         <v>673307</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4098,13 +4104,13 @@
         <v>3089879</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="H20" s="7">
         <v>4753</v>
@@ -4113,28 +4119,28 @@
         <v>3422208</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="M20" s="7">
         <v>7797</v>
       </c>
       <c r="N20" s="7">
-        <v>6512086</v>
+        <v>6512087</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4176,7 +4182,7 @@
         <v>8729</v>
       </c>
       <c r="N21" s="7">
-        <v>7185393</v>
+        <v>7185394</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>13</v>

--- a/data/trans_orig/P1497-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P1497-Habitat-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{807110BB-B86F-40E4-AC3C-F1F69C470B05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{826D7B4D-BBCA-4AC9-AAA3-CEA60718604E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{76B12A1A-0AE3-4770-8473-4A725716EA32}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{E606AE79-8AAF-402D-85E8-288367C1ED49}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
     <sheet name="2023" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -67,7 +67,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Si</t>
@@ -100,7 +100,7 @@
     <t>14,51%</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>91,73%</t>
@@ -121,7 +121,7 @@
     <t>3,14%</t>
   </si>
   <si>
-    <t>10/50</t>
+    <t>10-50.000 hab</t>
   </si>
   <si>
     <t>94,04%</t>
@@ -142,7 +142,7 @@
     <t>1,86%</t>
   </si>
   <si>
-    <t>mas de 50</t>
+    <t>&gt;50.000hab</t>
   </si>
   <si>
     <t>92,07%</t>
@@ -205,7 +205,7 @@
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
   </si>
   <si>
-    <t>Población con diagnóstico de otra enfermedad 1 en 2015 (Tasa respuesta: 6,36%)</t>
+    <t>Población con diagnóstico de otra enfermedad 1 en 2016 (Tasa respuesta: 6,36%)</t>
   </si>
   <si>
     <t>90,51%</t>
@@ -1028,7 +1028,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{514868F6-375B-4299-8F6E-C3CBA48D7F5C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16D632A1-08DC-4FC2-9BE5-70C8518813B3}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2091,7 +2091,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23A59268-34E1-410D-8688-7DDF366462E2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C155823B-50F6-4062-A0ED-B1FF9D96CCF6}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3154,7 +3154,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD84CBF2-83BF-4C0E-BA02-37D425ACB3C6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52CAE130-E033-43FD-AC84-04937C2619E4}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
